--- a/data/trans_orig/P1410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5CFEF0-5F4C-4473-90CE-FCBBCAACDBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693EE641-DE66-4AA6-BD4F-DAE63B154E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79C8CF3B-E20B-4BD7-B46F-6CA19DA84E34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03A16B6C-9199-406D-AD4F-4C628E7DDC61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="585">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,10 +95,10 @@
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>1,65%</t>
@@ -107,16 +107,16 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,16 +125,16 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>96,09%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -143,10 +143,10 @@
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,1627 +164,1636 @@
     <t>6,22%</t>
   </si>
   <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>95,3%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC5A63C-7AC9-4078-BED3-6040B16646D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838DA113-3CD0-434A-8AA7-83A1AD925763}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2804,7 +2813,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2813,13 +2822,13 @@
         <v>25007</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2843,13 @@
         <v>305965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>323</v>
@@ -2849,13 +2858,13 @@
         <v>323286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -2864,13 +2873,13 @@
         <v>629251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,7 +2935,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2944,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2959,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2974,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2998,13 @@
         <v>11418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3004,13 +3013,13 @@
         <v>8147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3019,13 +3028,13 @@
         <v>19565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3049,13 @@
         <v>347253</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>376</v>
@@ -3055,13 +3064,13 @@
         <v>363309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>725</v>
@@ -3070,13 +3079,13 @@
         <v>710562</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3141,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3150,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3165,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3180,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3204,13 @@
         <v>10226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3210,13 +3219,13 @@
         <v>7686</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3225,13 +3234,13 @@
         <v>17912</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3255,13 @@
         <v>193082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3261,13 +3270,13 @@
         <v>199982</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -3276,13 +3285,13 @@
         <v>393064</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3347,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3356,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3386,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3410,13 @@
         <v>13412</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3416,13 +3425,13 @@
         <v>5559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3431,13 +3440,13 @@
         <v>18971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3461,13 @@
         <v>257399</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -3467,13 +3476,13 @@
         <v>272585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>517</v>
@@ -3482,13 +3491,13 @@
         <v>529984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3553,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3562,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3577,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3592,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3616,13 @@
         <v>20435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3622,13 +3631,13 @@
         <v>26271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -3637,13 +3646,13 @@
         <v>46707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3667,13 @@
         <v>594592</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>595</v>
@@ -3673,13 +3682,13 @@
         <v>611948</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1171</v>
@@ -3688,13 +3697,13 @@
         <v>1206539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,7 +3759,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3768,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3783,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3798,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3822,13 @@
         <v>37505</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -3828,13 +3837,13 @@
         <v>33793</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>69</v>
@@ -3843,13 +3852,13 @@
         <v>71298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3873,13 @@
         <v>706290</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>715</v>
@@ -3879,13 +3888,13 @@
         <v>749718</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>1412</v>
@@ -3894,13 +3903,13 @@
         <v>1456008</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3989,7 +3998,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4004,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4028,13 @@
         <v>150161</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -4034,13 +4043,13 @@
         <v>126701</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>277</v>
@@ -4049,13 +4058,13 @@
         <v>276862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4079,13 @@
         <v>3126383</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>3176</v>
@@ -4085,28 +4094,28 @@
         <v>3252497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M38" s="7">
         <v>6234</v>
       </c>
       <c r="N38" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,7 +4157,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4186,7 +4195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520FE71B-7BD6-4D93-BCFC-BECC90A0CEC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC543FEC-2702-403E-BE53-0DEA3FE8FE03}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4543,7 +4552,7 @@
         <v>16084</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>201</v>
@@ -4558,13 +4567,13 @@
         <v>22081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4573,13 +4582,13 @@
         <v>38165</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4603,13 @@
         <v>489443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -4609,13 +4618,13 @@
         <v>501684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>917</v>
@@ -4624,13 +4633,13 @@
         <v>991127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4719,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4749,13 +4758,13 @@
         <v>16360</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4764,13 +4773,13 @@
         <v>20133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4779,13 +4788,13 @@
         <v>36493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4809,13 @@
         <v>307686</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -4815,13 +4824,13 @@
         <v>320887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -4830,13 +4839,13 @@
         <v>628573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4910,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4925,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4940,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4964,13 @@
         <v>31650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4970,13 +4979,13 @@
         <v>30868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -4985,13 +4994,13 @@
         <v>62518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5015,13 @@
         <v>637070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>598</v>
@@ -5021,13 +5030,13 @@
         <v>645328</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>1194</v>
@@ -5036,13 +5045,13 @@
         <v>1282398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5107,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5116,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5131,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5146,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5170,13 @@
         <v>6604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -5176,13 +5185,13 @@
         <v>11351</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5191,13 +5200,13 @@
         <v>17956</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5221,13 @@
         <v>206014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>201</v>
@@ -5227,13 +5236,13 @@
         <v>208240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>391</v>
@@ -5242,13 +5251,13 @@
         <v>414253</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5313,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5322,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5352,7 +5361,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5376,13 @@
         <v>13575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5382,13 +5391,13 @@
         <v>18740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -5397,13 +5406,13 @@
         <v>32316</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5427,13 @@
         <v>260406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5433,13 +5442,13 @@
         <v>259356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>498</v>
@@ -5448,13 +5457,13 @@
         <v>519761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5519,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5528,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5558,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5582,13 @@
         <v>29836</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -5588,13 +5597,13 @@
         <v>19420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -5603,13 +5612,13 @@
         <v>49256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5633,13 @@
         <v>632952</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -5639,13 +5648,13 @@
         <v>674433</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -5654,13 +5663,13 @@
         <v>1307385</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5725,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5734,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5749,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5764,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5788,13 @@
         <v>18178</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -5794,13 +5803,13 @@
         <v>26185</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M33" s="7">
         <v>41</v>
@@ -5809,13 +5818,13 @@
         <v>44364</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5839,13 @@
         <v>760920</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H34" s="7">
         <v>731</v>
@@ -5845,13 +5854,13 @@
         <v>795210</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M34" s="7">
         <v>1431</v>
@@ -5860,13 +5869,13 @@
         <v>1556129</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5955,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5970,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5994,13 @@
         <v>132288</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H37" s="7">
         <v>140</v>
@@ -6000,13 +6009,13 @@
         <v>148779</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M37" s="7">
         <v>263</v>
@@ -6015,13 +6024,13 @@
         <v>281066</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6045,13 @@
         <v>3294491</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H38" s="7">
         <v>3155</v>
@@ -6051,13 +6060,13 @@
         <v>3405137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" s="7">
         <v>6241</v>
@@ -6066,13 +6075,13 @@
         <v>6699628</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97120F8B-27DE-4180-B059-7DF752CA114D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA82835-FADF-407C-8D6A-7ACAFE2EB2CC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6282,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6342,13 +6351,13 @@
         <v>11511</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -6357,13 +6366,13 @@
         <v>20330</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6387,13 @@
         <v>284942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>267</v>
@@ -6393,7 +6402,7 @@
         <v>277192</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>344</v>
@@ -6411,10 +6420,10 @@
         <v>346</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6542,13 @@
         <v>20467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6548,13 +6557,13 @@
         <v>25382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6563,13 +6572,13 @@
         <v>45849</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6593,13 @@
         <v>482108</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>461</v>
@@ -6599,13 +6608,13 @@
         <v>497702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
@@ -6614,13 +6623,13 @@
         <v>979810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6724,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6748,13 @@
         <v>16626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6754,13 +6763,13 @@
         <v>8287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -6769,13 +6778,13 @@
         <v>24913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6799,13 @@
         <v>301939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -6805,13 +6814,13 @@
         <v>328022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -6820,13 +6829,13 @@
         <v>629961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6891,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6900,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6915,7 +6924,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6930,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6954,13 @@
         <v>14286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -6960,13 +6969,13 @@
         <v>35292</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6975,13 +6984,13 @@
         <v>49578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7005,13 @@
         <v>355678</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>328</v>
@@ -7011,13 +7020,13 @@
         <v>351991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -7026,13 +7035,13 @@
         <v>707669</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,7 +7097,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7106,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7121,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7136,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7160,13 @@
         <v>4407</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7166,13 +7175,13 @@
         <v>4169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -7181,13 +7190,13 @@
         <v>8576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>164</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7211,13 @@
         <v>206814</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -7217,13 +7226,13 @@
         <v>214418</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -7232,13 +7241,13 @@
         <v>421232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,7 +7303,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7312,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7327,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7357,13 +7366,13 @@
         <v>6492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7372,13 +7381,13 @@
         <v>15052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7387,10 +7396,10 @@
         <v>21544</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>415</v>
@@ -7408,7 +7417,7 @@
         <v>256631</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>416</v>
@@ -7423,13 +7432,13 @@
         <v>258063</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -7438,13 +7447,13 @@
         <v>514694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,7 +7509,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7518,7 +7527,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7548,7 +7557,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,10 +7575,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7578,13 +7587,13 @@
         <v>27522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>424</v>
+        <v>92</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -7593,13 +7602,13 @@
         <v>49608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,10 +7626,10 @@
         <v>33</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>429</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7629,13 +7638,13 @@
         <v>663772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M30" s="7">
         <v>1183</v>
@@ -7650,7 +7659,7 @@
         <v>432</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7715,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7724,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7739,7 +7748,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7754,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,10 +7778,10 @@
         <v>34375</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>434</v>
@@ -7784,13 +7793,13 @@
         <v>32312</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -7799,13 +7808,13 @@
         <v>66686</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7829,13 @@
         <v>744208</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="H34" s="7">
         <v>727</v>
@@ -7835,13 +7844,13 @@
         <v>793855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>1443</v>
@@ -7850,13 +7859,13 @@
         <v>1538064</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7939,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7945,7 +7954,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7960,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7984,13 @@
         <v>127557</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>353</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>441</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>138</v>
@@ -7990,13 +7999,13 @@
         <v>159528</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>266</v>
@@ -8005,13 +8014,13 @@
         <v>287085</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +8035,13 @@
         <v>3266793</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>358</v>
       </c>
       <c r="H38" s="7">
         <v>3200</v>
@@ -8041,13 +8050,13 @@
         <v>3385014</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>446</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="M38" s="7">
         <v>6303</v>
@@ -8056,13 +8065,13 @@
         <v>6651807</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>448</v>
+        <v>314</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>431</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,7 +8151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E36440-84E8-428D-A2E2-2FA5BA98BFD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E28F32E-4C34-4F0F-8AEF-DA4B57FCA2DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8272,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8287,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8320,10 +8329,10 @@
         <v>451</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -8332,13 +8341,13 @@
         <v>9732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -8374,7 +8383,7 @@
         <v>459</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>521</v>
@@ -8383,13 +8392,13 @@
         <v>261671</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>831</v>
@@ -8478,7 +8487,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8493,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8538,13 +8547,13 @@
         <v>24437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -8553,13 +8562,13 @@
         <v>54248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,16 +8580,16 @@
         <v>353</v>
       </c>
       <c r="D10" s="7">
-        <v>487039</v>
+        <v>487038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>679</v>
@@ -8589,13 +8598,13 @@
         <v>528755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>1032</v>
@@ -8604,13 +8613,13 @@
         <v>1015795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,7 +8631,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>516851</v>
+        <v>516850</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -8684,7 +8693,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8699,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8714,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,13 +8738,13 @@
         <v>20416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -8744,13 +8753,13 @@
         <v>24345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -8759,13 +8768,13 @@
         <v>44760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8780,13 +8789,13 @@
         <v>301824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -8795,13 +8804,13 @@
         <v>348939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -8810,13 +8819,13 @@
         <v>650764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,7 +8881,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8890,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8905,7 +8914,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8935,13 +8944,13 @@
         <v>19784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -8953,10 +8962,10 @@
         <v>455</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -8965,13 +8974,13 @@
         <v>37982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +8995,13 @@
         <v>302456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>568</v>
@@ -9004,10 +9013,10 @@
         <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>831</v>
@@ -9016,13 +9025,13 @@
         <v>712814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9078,7 +9087,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9105,13 +9114,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9120,13 +9129,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9141,13 +9150,13 @@
         <v>6581</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9156,13 +9165,13 @@
         <v>7563</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>516</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -9171,13 +9180,13 @@
         <v>14144</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,13 +9201,13 @@
         <v>190167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>472</v>
@@ -9207,13 +9216,13 @@
         <v>223483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
         <v>739</v>
@@ -9222,13 +9231,13 @@
         <v>413649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9284,7 +9293,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9302,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9311,13 +9320,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9326,13 +9335,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9347,13 +9356,13 @@
         <v>21807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -9362,13 +9371,13 @@
         <v>17862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -9377,13 +9386,13 @@
         <v>39669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>528</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9398,13 +9407,13 @@
         <v>255416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
         <v>417</v>
@@ -9413,13 +9422,13 @@
         <v>257042</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M26" s="7">
         <v>750</v>
@@ -9428,13 +9437,13 @@
         <v>512459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9490,7 +9499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9508,7 +9517,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9538,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9553,13 +9562,13 @@
         <v>41445</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -9568,13 +9577,13 @@
         <v>36434</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>507</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -9583,13 +9592,13 @@
         <v>77878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,13 +9613,13 @@
         <v>585532</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H30" s="7">
         <v>901</v>
@@ -9619,13 +9628,13 @@
         <v>766256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>549</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M30" s="7">
         <v>1454</v>
@@ -9634,13 +9643,13 @@
         <v>1351788</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9696,7 +9705,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9714,7 +9723,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9723,13 +9732,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9738,13 +9747,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9759,13 +9768,13 @@
         <v>34057</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -9774,13 +9783,13 @@
         <v>24711</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>339</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>558</v>
+        <v>22</v>
       </c>
       <c r="M33" s="7">
         <v>80</v>
@@ -9789,13 +9798,13 @@
         <v>58767</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,13 +9819,13 @@
         <v>825371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H34" s="7">
         <v>1023</v>
@@ -9825,13 +9834,13 @@
         <v>840961</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>563</v>
+        <v>358</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>567</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M34" s="7">
         <v>1743</v>
@@ -9840,13 +9849,13 @@
         <v>1666333</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>361</v>
+        <v>567</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9920,7 +9929,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9929,13 +9938,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9944,13 +9953,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>569</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9965,13 +9974,13 @@
         <v>186741</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>572</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>282</v>
@@ -9980,13 +9989,13 @@
         <v>163281</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M37" s="7">
         <v>526</v>
@@ -9995,13 +10004,13 @@
         <v>350022</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>350</v>
+        <v>149</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10016,13 +10025,13 @@
         <v>3195263</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="H38" s="7">
         <v>5073</v>
@@ -10031,13 +10040,13 @@
         <v>3637466</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>486</v>
+        <v>579</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>262</v>
+        <v>581</v>
       </c>
       <c r="M38" s="7">
         <v>8202</v>
@@ -10046,13 +10055,13 @@
         <v>6832730</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693EE641-DE66-4AA6-BD4F-DAE63B154E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C36D449-C3FC-437C-AB31-72A617BCE826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03A16B6C-9199-406D-AD4F-4C628E7DDC61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{604DE997-5DDF-4476-8D79-D9DF80B55959}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="591">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1687 +95,1705 @@
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
   </si>
   <si>
     <t>94,92%</t>
@@ -2205,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838DA113-3CD0-434A-8AA7-83A1AD925763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B55BC0-4EB7-4309-A099-59AA0F54A441}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2541,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2556,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2571,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2604,13 @@
         <v>30660</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -2601,13 +2619,13 @@
         <v>28822</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -2655,10 +2673,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>907</v>
@@ -2667,13 +2685,13 @@
         <v>937542</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2747,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2747,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2762,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2777,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2810,13 @@
         <v>12881</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2807,13 +2825,13 @@
         <v>12126</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2822,13 +2840,13 @@
         <v>25007</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2861,13 @@
         <v>305965</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>323</v>
@@ -2858,13 +2876,13 @@
         <v>323286</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -2873,13 +2891,13 @@
         <v>629251</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,7 +2953,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2953,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2968,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2983,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3016,13 @@
         <v>11418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3013,13 +3031,13 @@
         <v>8147</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3028,13 +3046,13 @@
         <v>19565</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3067,13 @@
         <v>347253</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>376</v>
@@ -3064,13 +3082,13 @@
         <v>363309</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>725</v>
@@ -3079,13 +3097,13 @@
         <v>710562</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3159,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3159,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3174,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3189,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3222,13 @@
         <v>10226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3219,13 +3237,13 @@
         <v>7686</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3234,13 +3252,13 @@
         <v>17912</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3273,13 @@
         <v>193082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3270,13 +3288,13 @@
         <v>199982</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -3285,13 +3303,13 @@
         <v>393064</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3365,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3365,7 +3383,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3395,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3428,13 @@
         <v>13412</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3425,13 +3443,13 @@
         <v>5559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3440,13 +3458,13 @@
         <v>18971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3479,13 @@
         <v>257399</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -3476,13 +3494,13 @@
         <v>272585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>517</v>
@@ -3491,13 +3509,13 @@
         <v>529984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,7 +3571,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3571,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3586,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3601,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3634,13 @@
         <v>20435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3631,13 +3649,13 @@
         <v>26271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -3646,13 +3664,13 @@
         <v>46707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3685,13 @@
         <v>594592</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>595</v>
@@ -3682,13 +3700,13 @@
         <v>611948</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1171</v>
@@ -3697,13 +3715,13 @@
         <v>1206539</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3777,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3777,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3792,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3807,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,10 +3840,10 @@
         <v>37505</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>166</v>
@@ -3879,7 +3897,7 @@
         <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>715</v>
@@ -3888,13 +3906,13 @@
         <v>749718</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>1412</v>
@@ -3903,13 +3921,13 @@
         <v>1456008</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3998,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4013,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4046,13 @@
         <v>150161</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -4043,13 +4061,13 @@
         <v>126701</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>277</v>
@@ -4058,13 +4076,13 @@
         <v>276862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,16 +4094,16 @@
         <v>3058</v>
       </c>
       <c r="D38" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>3176</v>
@@ -4094,13 +4112,13 @@
         <v>3252497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>6234</v>
@@ -4109,13 +4127,13 @@
         <v>6378879</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4145,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4171,7 +4189,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +4213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC543FEC-2702-403E-BE53-0DEA3FE8FE03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181A9792-FE3C-4E84-B742-858A29832C91}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4212,7 +4230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4317,39 +4335,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,39 +4380,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,39 +4425,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,39 +4470,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4522,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4537,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4570,13 @@
         <v>16084</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4567,13 +4585,13 @@
         <v>22081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4582,13 +4600,13 @@
         <v>38165</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4621,13 @@
         <v>489443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -4618,13 +4636,13 @@
         <v>501684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>917</v>
@@ -4633,13 +4651,13 @@
         <v>991127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4713,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4713,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4728,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4743,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4776,13 @@
         <v>16360</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4773,13 +4791,13 @@
         <v>20133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4788,13 +4806,13 @@
         <v>36493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4827,13 @@
         <v>307686</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -4824,13 +4842,13 @@
         <v>320887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -4839,13 +4857,13 @@
         <v>628573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4919,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4919,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4934,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4994,10 +5012,10 @@
         <v>62518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>242</v>
@@ -5045,13 +5063,13 @@
         <v>1282398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5125,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5155,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,7 +5331,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5361,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5394,7 @@
         <v>13575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>272</v>
@@ -5394,10 +5412,10 @@
         <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -5406,13 +5424,13 @@
         <v>32316</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5445,13 @@
         <v>260406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -5442,13 +5460,13 @@
         <v>259356</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>498</v>
@@ -5457,13 +5475,13 @@
         <v>519761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5537,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5537,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5552,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5582,13 +5600,13 @@
         <v>29836</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -5597,13 +5615,13 @@
         <v>19420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -5612,13 +5630,13 @@
         <v>49256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5651,13 @@
         <v>632952</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -5648,13 +5666,13 @@
         <v>674433</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -5663,13 +5681,13 @@
         <v>1307385</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,7 +5743,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5743,7 +5761,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5758,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5773,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5806,13 @@
         <v>18178</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -5803,13 +5821,13 @@
         <v>26185</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M33" s="7">
         <v>41</v>
@@ -5818,13 +5836,13 @@
         <v>44364</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5857,13 @@
         <v>760920</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H34" s="7">
         <v>731</v>
@@ -5854,13 +5872,13 @@
         <v>795210</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>1431</v>
@@ -5869,13 +5887,13 @@
         <v>1556129</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,7 +5967,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5964,7 +5982,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5979,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6012,13 @@
         <v>132288</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="H37" s="7">
         <v>140</v>
@@ -6009,13 +6027,13 @@
         <v>148779</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M37" s="7">
         <v>263</v>
@@ -6024,13 +6042,13 @@
         <v>281066</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6063,13 @@
         <v>3294491</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H38" s="7">
         <v>3155</v>
@@ -6066,7 +6084,7 @@
         <v>326</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="M38" s="7">
         <v>6241</v>
@@ -6075,13 +6093,13 @@
         <v>6699628</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,7 +6155,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6161,7 +6179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA82835-FADF-407C-8D6A-7ACAFE2EB2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7296B5-36BB-4FD4-AF0A-B3C32E9DB9DD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6291,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6351,13 +6369,13 @@
         <v>11511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -6366,10 +6384,10 @@
         <v>20330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>340</v>
@@ -6402,13 +6420,13 @@
         <v>277192</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>524</v>
@@ -6417,13 +6435,13 @@
         <v>562134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,7 +6515,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6512,7 +6530,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6527,7 +6545,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6560,13 @@
         <v>20467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6557,13 +6575,13 @@
         <v>25382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6572,13 +6590,13 @@
         <v>45849</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6611,13 @@
         <v>482108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>461</v>
@@ -6608,13 +6626,13 @@
         <v>497702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>915</v>
@@ -6623,13 +6641,13 @@
         <v>979810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6703,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6703,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6718,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6733,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6766,13 @@
         <v>16626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6763,13 +6781,13 @@
         <v>8287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -6778,13 +6796,13 @@
         <v>24913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6817,13 @@
         <v>301939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -6814,13 +6832,13 @@
         <v>328022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -6829,13 +6847,13 @@
         <v>629961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6909,7 +6927,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6924,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6939,7 +6957,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6972,13 @@
         <v>14286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -6969,13 +6987,13 @@
         <v>35292</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6984,13 +7002,13 @@
         <v>49578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7023,13 @@
         <v>355678</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>328</v>
@@ -7020,13 +7038,13 @@
         <v>351991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -7035,13 +7053,13 @@
         <v>707669</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,7 +7115,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7130,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7145,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7178,13 @@
         <v>4407</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7175,13 +7193,13 @@
         <v>4169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -7190,13 +7208,13 @@
         <v>8576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7229,13 @@
         <v>206814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -7226,13 +7244,13 @@
         <v>214418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -7241,13 +7259,13 @@
         <v>421232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,7 +7321,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7321,7 +7339,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7366,13 +7384,13 @@
         <v>6492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7381,13 +7399,13 @@
         <v>15052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7396,13 +7414,13 @@
         <v>21544</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7435,13 @@
         <v>256631</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -7432,13 +7450,13 @@
         <v>258063</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -7447,13 +7465,13 @@
         <v>514694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,7 +7527,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7527,7 +7545,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7542,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7557,7 +7575,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,10 +7593,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7587,13 +7605,13 @@
         <v>27522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>92</v>
+        <v>432</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -7602,13 +7620,13 @@
         <v>49608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>428</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,10 +7644,10 @@
         <v>33</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>623</v>
@@ -7638,13 +7656,13 @@
         <v>663772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>100</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>1183</v>
@@ -7653,13 +7671,13 @@
         <v>1298244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>431</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,7 +7733,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7733,7 +7751,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7748,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7763,7 +7781,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7796,13 @@
         <v>34375</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H33" s="7">
         <v>28</v>
@@ -7793,13 +7811,13 @@
         <v>32312</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -7808,13 +7826,13 @@
         <v>66686</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7847,13 @@
         <v>744208</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="H34" s="7">
         <v>727</v>
@@ -7844,13 +7862,13 @@
         <v>793855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M34" s="7">
         <v>1443</v>
@@ -7859,13 +7877,13 @@
         <v>1538064</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7954,7 +7972,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7969,7 +7987,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +8002,13 @@
         <v>127557</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>353</v>
+        <v>448</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>138</v>
@@ -7999,13 +8017,13 @@
         <v>159528</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M37" s="7">
         <v>266</v>
@@ -8014,13 +8032,13 @@
         <v>287085</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>307</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8053,13 @@
         <v>3266793</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="H38" s="7">
         <v>3200</v>
@@ -8050,13 +8068,13 @@
         <v>3385014</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M38" s="7">
         <v>6303</v>
@@ -8065,13 +8083,13 @@
         <v>6651807</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>314</v>
+        <v>456</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,7 +8145,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8151,7 +8169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E28F32E-4C34-4F0F-8AEF-DA4B57FCA2DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DFE268-46A6-4088-B528-E3162D4941CE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8168,7 +8186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8281,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8296,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8311,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8344,13 @@
         <v>12841</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -8341,13 +8359,13 @@
         <v>9732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -8356,13 +8374,13 @@
         <v>22572</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>455</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>457</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,13 +8395,13 @@
         <v>247457</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="H6" s="7">
         <v>521</v>
@@ -8392,13 +8410,13 @@
         <v>261671</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M6" s="7">
         <v>831</v>
@@ -8407,13 +8425,13 @@
         <v>509128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>462</v>
+        <v>51</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,7 +8505,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8502,7 +8520,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8517,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8532,13 +8550,13 @@
         <v>29812</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -8547,13 +8565,13 @@
         <v>24437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -8562,13 +8580,13 @@
         <v>54248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8583,13 +8601,13 @@
         <v>487038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>679</v>
@@ -8598,13 +8616,13 @@
         <v>528755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>1032</v>
@@ -8613,13 +8631,13 @@
         <v>1015795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,7 +8693,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8693,7 +8711,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8708,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8723,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8738,13 +8756,13 @@
         <v>20416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -8753,13 +8771,13 @@
         <v>24345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -8768,13 +8786,13 @@
         <v>44760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,13 +8807,13 @@
         <v>301824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -8804,13 +8822,13 @@
         <v>348939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -8819,13 +8837,13 @@
         <v>650764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,7 +8899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8899,7 +8917,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8914,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8929,7 +8947,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +8962,13 @@
         <v>19784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -8959,13 +8977,13 @@
         <v>18198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -8974,13 +8992,13 @@
         <v>37982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,13 +9013,13 @@
         <v>302456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H18" s="7">
         <v>568</v>
@@ -9010,13 +9028,13 @@
         <v>410358</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>51</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
         <v>831</v>
@@ -9025,13 +9043,13 @@
         <v>712814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,7 +9105,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9114,13 +9132,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9129,13 +9147,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9150,13 +9168,13 @@
         <v>6581</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>514</v>
+        <v>356</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9165,13 +9183,13 @@
         <v>7563</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -9180,13 +9198,13 @@
         <v>14144</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9201,13 +9219,13 @@
         <v>190167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
         <v>472</v>
@@ -9216,13 +9234,13 @@
         <v>223483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>739</v>
@@ -9231,13 +9249,13 @@
         <v>413649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,7 +9311,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9311,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9320,13 +9338,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9335,13 +9353,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9356,13 +9374,13 @@
         <v>21807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -9371,13 +9389,13 @@
         <v>17862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -9386,13 +9404,13 @@
         <v>39669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,13 +9425,13 @@
         <v>255416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>417</v>
@@ -9422,13 +9440,13 @@
         <v>257042</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>750</v>
@@ -9437,13 +9455,13 @@
         <v>512459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9499,7 +9517,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9517,7 +9535,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9532,7 +9550,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9547,7 +9565,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9562,13 +9580,13 @@
         <v>41445</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -9577,13 +9595,13 @@
         <v>36434</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -9592,13 +9610,13 @@
         <v>77878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9613,13 +9631,13 @@
         <v>585532</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="H30" s="7">
         <v>901</v>
@@ -9628,13 +9646,13 @@
         <v>766256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>555</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>1454</v>
@@ -9643,13 +9661,13 @@
         <v>1351788</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9705,7 +9723,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9723,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9732,13 +9750,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9747,13 +9765,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9768,13 +9786,13 @@
         <v>34057</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>561</v>
+        <v>90</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>562</v>
+        <v>287</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>367</v>
+        <v>567</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -9783,13 +9801,13 @@
         <v>24711</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>218</v>
+        <v>568</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>339</v>
+        <v>569</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
         <v>80</v>
@@ -9798,13 +9816,13 @@
         <v>58767</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9819,13 +9837,13 @@
         <v>825371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>565</v>
+        <v>98</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>373</v>
+        <v>572</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>566</v>
+        <v>295</v>
       </c>
       <c r="H34" s="7">
         <v>1023</v>
@@ -9834,13 +9852,13 @@
         <v>840961</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="M34" s="7">
         <v>1743</v>
@@ -9849,13 +9867,13 @@
         <v>1666333</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9929,7 +9947,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9938,13 +9956,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>89</v>
+        <v>575</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9953,13 +9971,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>376</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9974,13 +9992,13 @@
         <v>186741</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="H37" s="7">
         <v>282</v>
@@ -9989,13 +10007,13 @@
         <v>163281</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>575</v>
+        <v>318</v>
       </c>
       <c r="M37" s="7">
         <v>526</v>
@@ -10004,13 +10022,13 @@
         <v>350022</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10025,13 +10043,13 @@
         <v>3195263</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>584</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H38" s="7">
         <v>5073</v>
@@ -10040,13 +10058,13 @@
         <v>3637466</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M38" s="7">
         <v>8202</v>
@@ -10055,13 +10073,13 @@
         <v>6832730</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10117,7 +10135,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C05490B-5093-43AB-97B8-5A5D29118296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBAF7F4-5159-4490-9B9E-BD72C35841D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE08E09C-FB24-404C-AF80-74E5FBC19A4F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02099990-CF85-45FD-A891-F34A20EC3BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="536">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -563,7 +563,52 @@
     <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>1,79%</t>
@@ -650,994 +695,958 @@
     <t>96,16%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
     <t>94,92%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45855E-587A-401F-B37C-72A36A496387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B04D506-2677-4619-8465-EE7C0185EDDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3461,7 +3470,7 @@
         <v>3058</v>
       </c>
       <c r="D29" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>164</v>
@@ -3476,7 +3485,7 @@
         <v>3176</v>
       </c>
       <c r="I29" s="7">
-        <v>3252497</v>
+        <v>3252496</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>166</v>
@@ -3491,7 +3500,7 @@
         <v>6234</v>
       </c>
       <c r="N29" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>169</v>
@@ -3512,7 +3521,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3527,7 +3536,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3542,7 +3551,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3580,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76F68F-D33C-4268-A8BC-1D56C63A3E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEEB98E-6D86-482B-BC9F-061275FF8376}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3698,43 +3707,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9553</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12524</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22078</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,43 +3758,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="7">
+        <v>285185</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="I5" s="7">
+        <v>274721</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>518</v>
+      </c>
+      <c r="N5" s="7">
+        <v>559905</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,43 +3809,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,10 +3871,10 @@
         <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3859,10 +3886,10 @@
         <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3874,7 +3901,7 @@
         <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>140</v>
@@ -3895,10 +3922,10 @@
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>459</v>
@@ -3910,10 +3937,10 @@
         <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -3928,7 +3955,7 @@
         <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4023,13 @@
         <v>16360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4011,13 +4038,13 @@
         <v>20133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4026,13 +4053,13 @@
         <v>36493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4074,13 @@
         <v>307686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4062,13 +4089,13 @@
         <v>320887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -4077,13 +4104,13 @@
         <v>628573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,49 +4172,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>31650</v>
+        <v>22097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>30868</v>
+        <v>18344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>62518</v>
+        <v>40440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,49 +4223,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>596</v>
+        <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>637070</v>
+        <v>351885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>598</v>
+        <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>645328</v>
+        <v>370607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>1194</v>
+        <v>676</v>
       </c>
       <c r="N14" s="7">
-        <v>1282398</v>
+        <v>722493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4262,10 +4289,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4277,10 +4304,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4306,13 +4333,13 @@
         <v>6604</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4321,13 +4348,13 @@
         <v>11351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4336,13 +4363,13 @@
         <v>17956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4384,13 @@
         <v>206014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4372,13 +4399,13 @@
         <v>208240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -4387,13 +4414,13 @@
         <v>414253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,10 +4491,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4476,13 +4503,13 @@
         <v>18740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4491,13 +4518,13 @@
         <v>32316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,10 +4542,10 @@
         <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4527,13 +4554,13 @@
         <v>259356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>498</v>
@@ -4542,13 +4569,13 @@
         <v>519761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4643,13 @@
         <v>29836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4631,13 +4658,13 @@
         <v>19420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4646,13 +4673,13 @@
         <v>49256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4694,13 @@
         <v>632952</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>618</v>
@@ -4682,13 +4709,13 @@
         <v>674433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1208</v>
@@ -4697,10 +4724,10 @@
         <v>1307385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>138</v>
@@ -4771,10 +4798,10 @@
         <v>18178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>76</v>
@@ -4786,13 +4813,13 @@
         <v>26185</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -4801,10 +4828,10 @@
         <v>44364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>54</v>
@@ -4822,13 +4849,13 @@
         <v>760920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4837,13 +4864,13 @@
         <v>795210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1431</v>
@@ -4852,13 +4879,13 @@
         <v>1556129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,10 +4953,10 @@
         <v>132288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>109</v>
@@ -4941,13 +4968,13 @@
         <v>148779</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -4956,13 +4983,13 @@
         <v>281066</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5004,13 @@
         <v>3294491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>3155</v>
@@ -4992,13 +5019,13 @@
         <v>3405137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>6241</v>
@@ -5007,13 +5034,13 @@
         <v>6699628</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FB3FAB-0D53-46DA-ABD9-F6DC4FDBBB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754D285-6FCE-40F8-804D-7DBFE928F904}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5110,7 +5137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5217,13 +5244,13 @@
         <v>8819</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5232,13 +5259,13 @@
         <v>11511</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5247,13 +5274,13 @@
         <v>20330</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5295,13 @@
         <v>284942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5283,13 +5310,13 @@
         <v>277192</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>524</v>
@@ -5298,10 +5325,10 @@
         <v>562134</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>132</v>
@@ -5372,13 +5399,13 @@
         <v>20467</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5387,13 +5414,13 @@
         <v>25382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5402,13 +5429,13 @@
         <v>45849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5450,13 @@
         <v>482108</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -5438,13 +5465,13 @@
         <v>497702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -5453,13 +5480,13 @@
         <v>979810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5554,13 @@
         <v>16626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5542,13 +5569,13 @@
         <v>8287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -5557,13 +5584,13 @@
         <v>24913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5605,13 @@
         <v>301939</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -5593,10 +5620,10 @@
         <v>328022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>82</v>
@@ -5608,13 +5635,13 @@
         <v>629961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5709,10 @@
         <v>14286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>127</v>
@@ -5697,13 +5724,13 @@
         <v>35292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -5712,13 +5739,13 @@
         <v>49578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5760,13 @@
         <v>355678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -5748,13 +5775,13 @@
         <v>351991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -5763,13 +5790,13 @@
         <v>707669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5864,13 @@
         <v>4407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5852,13 +5879,13 @@
         <v>4169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5870,7 +5897,7 @@
         <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>141</v>
@@ -5888,13 +5915,13 @@
         <v>206814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -5903,13 +5930,13 @@
         <v>214418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5924,7 +5951,7 @@
         <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6019,13 @@
         <v>6492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6010,10 +6037,10 @@
         <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6022,13 +6049,13 @@
         <v>21544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6070,13 @@
         <v>256631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -6061,10 +6088,10 @@
         <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -6073,13 +6100,13 @@
         <v>514694</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,10 +6177,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -6162,13 +6189,13 @@
         <v>27522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6177,13 +6204,13 @@
         <v>49608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,10 +6228,10 @@
         <v>27</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
@@ -6213,13 +6240,13 @@
         <v>663772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>1183</v>
@@ -6228,10 +6255,10 @@
         <v>1298244</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>83</v>
@@ -6302,13 +6329,13 @@
         <v>34375</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -6323,7 +6350,7 @@
         <v>57</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6335,10 +6362,10 @@
         <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6380,13 @@
         <v>744208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H26" s="7">
         <v>727</v>
@@ -6371,7 +6398,7 @@
         <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>66</v>
@@ -6386,10 +6413,10 @@
         <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6490,7 @@
         <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -6472,13 +6499,13 @@
         <v>159528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -6487,13 +6514,13 @@
         <v>287085</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,7 +6538,7 @@
         <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>168</v>
@@ -6523,13 +6550,13 @@
         <v>3385014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M29" s="7">
         <v>6303</v>
@@ -6538,13 +6565,13 @@
         <v>6651807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,7 +6651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102CF240-7F14-40A2-BBAF-851B2638D2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2DC2E2-5B65-470A-8750-588261442BED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6641,7 +6668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6745,46 +6772,46 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>12841</v>
+        <v>13870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>9732</v>
+        <v>10170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>22572</v>
+        <v>24040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,46 +6823,46 @@
         <v>310</v>
       </c>
       <c r="D5" s="7">
-        <v>247457</v>
+        <v>297573</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>261671</v>
+        <v>279465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>831</v>
       </c>
       <c r="N5" s="7">
-        <v>509128</v>
+        <v>577037</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6874,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6862,7 +6889,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6877,7 +6904,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6900,46 +6927,46 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>29812</v>
+        <v>28207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>24437</v>
+        <v>22017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>54248</v>
+        <v>50224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,46 +6978,46 @@
         <v>353</v>
       </c>
       <c r="D8" s="7">
-        <v>487039</v>
+        <v>487866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>679</v>
       </c>
       <c r="I8" s="7">
-        <v>528755</v>
+        <v>491679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
       </c>
       <c r="N8" s="7">
-        <v>1015795</v>
+        <v>979545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,7 +7029,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516851</v>
+        <v>516073</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7017,7 +7044,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553192</v>
+        <v>513696</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7032,7 +7059,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070043</v>
+        <v>1029769</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7055,46 +7082,46 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>20416</v>
+        <v>19418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>24345</v>
+        <v>22326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>44760</v>
+        <v>41744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,46 +7133,46 @@
         <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>301824</v>
+        <v>296632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>492</v>
       </c>
       <c r="I11" s="7">
-        <v>348939</v>
+        <v>326802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>822</v>
       </c>
       <c r="N11" s="7">
-        <v>650764</v>
+        <v>623434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,7 +7184,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7172,7 +7199,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7187,7 +7214,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7210,46 +7237,46 @@
         <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>19784</v>
+        <v>18678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>463</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>18198</v>
+        <v>16442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>37982</v>
+        <v>35120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,46 +7288,46 @@
         <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>302456</v>
+        <v>293879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>568</v>
       </c>
       <c r="I14" s="7">
-        <v>410358</v>
+        <v>459276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>831</v>
       </c>
       <c r="N14" s="7">
-        <v>712814</v>
+        <v>753154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,7 +7339,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7327,7 +7354,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7342,7 +7369,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7365,46 +7392,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>6581</v>
+        <v>5992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>7563</v>
+        <v>6805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
       </c>
       <c r="N16" s="7">
-        <v>14144</v>
+        <v>12797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,46 +7443,46 @@
         <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>190167</v>
+        <v>172750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
         <v>472</v>
       </c>
       <c r="I17" s="7">
-        <v>223483</v>
+        <v>201070</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
       </c>
       <c r="N17" s="7">
-        <v>413650</v>
+        <v>373820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,7 +7494,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7482,7 +7509,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231046</v>
+        <v>207875</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7497,7 +7524,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427794</v>
+        <v>386617</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7520,46 +7547,46 @@
         <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>21807</v>
+        <v>20943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>17862</v>
+        <v>16627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>39669</v>
+        <v>37569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,46 +7598,46 @@
         <v>333</v>
       </c>
       <c r="D20" s="7">
-        <v>255416</v>
+        <v>248693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>417</v>
       </c>
       <c r="I20" s="7">
-        <v>257043</v>
+        <v>239760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M20" s="7">
         <v>750</v>
       </c>
       <c r="N20" s="7">
-        <v>512458</v>
+        <v>488454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,7 +7649,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7637,7 +7664,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7652,7 +7679,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7675,46 +7702,46 @@
         <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>41445</v>
+        <v>40727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>487</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
       </c>
       <c r="I22" s="7">
-        <v>36434</v>
+        <v>32512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
       </c>
       <c r="N22" s="7">
-        <v>77878</v>
+        <v>73239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,46 +7753,46 @@
         <v>553</v>
       </c>
       <c r="D23" s="7">
-        <v>585532</v>
+        <v>582833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>901</v>
       </c>
       <c r="I23" s="7">
-        <v>766256</v>
+        <v>815376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="M23" s="7">
         <v>1454</v>
       </c>
       <c r="N23" s="7">
-        <v>1351788</v>
+        <v>1398209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,7 +7804,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626977</v>
+        <v>623560</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7792,7 +7819,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>802690</v>
+        <v>847888</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7807,7 +7834,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1429666</v>
+        <v>1471448</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7830,46 +7857,46 @@
         <v>42</v>
       </c>
       <c r="D25" s="7">
-        <v>34057</v>
+        <v>29124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>24711</v>
+        <v>20697</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
       </c>
       <c r="N25" s="7">
-        <v>58767</v>
+        <v>49821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,46 +7908,46 @@
         <v>720</v>
       </c>
       <c r="D26" s="7">
-        <v>825371</v>
+        <v>899596</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
       </c>
       <c r="I26" s="7">
-        <v>840961</v>
+        <v>694695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>1743</v>
       </c>
       <c r="N26" s="7">
-        <v>1666333</v>
+        <v>1594291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,7 +7959,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7947,7 +7974,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7962,7 +7989,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7985,46 +8012,46 @@
         <v>244</v>
       </c>
       <c r="D28" s="7">
-        <v>186741</v>
+        <v>176960</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>519</v>
+        <v>19</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7">
         <v>282</v>
       </c>
       <c r="I28" s="7">
-        <v>163281</v>
+        <v>147595</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
       </c>
       <c r="N28" s="7">
-        <v>350022</v>
+        <v>324555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>258</v>
+        <v>530</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,46 +8063,46 @@
         <v>3129</v>
       </c>
       <c r="D29" s="7">
-        <v>3195263</v>
+        <v>3279821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>526</v>
+        <v>28</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H29" s="7">
         <v>5073</v>
       </c>
       <c r="I29" s="7">
-        <v>3637467</v>
+        <v>3508123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>8202</v>
       </c>
       <c r="N29" s="7">
-        <v>6832729</v>
+        <v>6787944</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,7 +8114,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382004</v>
+        <v>3456781</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8102,7 +8129,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3800748</v>
+        <v>3655718</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8117,7 +8144,7 @@
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7182751</v>
+        <v>7112499</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
